--- a/data/relatives.xlsx
+++ b/data/relatives.xlsx
@@ -4599,8 +4599,8 @@
   </sheetPr>
   <dimension ref="A1:Y972"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B234" activeCellId="0" sqref="B234"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14323,7 +14323,7 @@
         <v>592</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
